--- a/battles/Leuctra/Leuctra.xlsx
+++ b/battles/Leuctra/Leuctra.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\training\gboh-companion\battles\Leuctra\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD05A8-1C11-4B44-AF74-91D7293DEE48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spartan" sheetId="1" r:id="rId1"/>
     <sheet name="Theban" sheetId="2" r:id="rId2"/>
     <sheet name="Leaders" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="5" r:id="rId5"/>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -249,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -391,76 +398,76 @@
     </xf>
   </cellXfs>
   <cellStyles count="71">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,7 +484,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kloetzer Laurent" refreshedDate="44530.233407291664" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kloetzer Laurent" refreshedDate="44530.233407291664" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H22" sheet="Theban"/>
   </cacheSource>
@@ -532,7 +539,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Laurent Kloetzer" refreshedDate="44563.540876967592" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="21">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Laurent Kloetzer" refreshedDate="44563.540876967592" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N22" sheet="Theban"/>
   </cacheSource>
@@ -595,7 +602,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Laurent Kloetzer" refreshedDate="44563.540978240744" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Laurent Kloetzer" refreshedDate="44563.540978240744" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:M3" sheet="Spartan"/>
   </cacheSource>
@@ -1314,7 +1321,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M38:N41" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -1371,7 +1378,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A38:B42" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -1445,7 +1452,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A29:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -1543,7 +1550,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N29:O34" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -1926,22 +1933,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1999,7 +2006,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -2013,7 +2020,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2030,7 +2037,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -2044,7 +2051,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2061,7 +2068,7 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -2075,7 +2082,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2092,7 +2099,7 @@
         <v>34</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2106,7 +2113,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2137,7 +2144,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -2168,7 +2175,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2185,7 +2192,7 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -2199,7 +2206,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2216,7 +2223,7 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -2230,7 +2237,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2247,7 +2254,7 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -2261,7 +2268,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2292,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2323,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2354,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2392,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2416,73 +2423,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="L16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="12:13">
-      <c r="L17">
-        <f t="shared" ref="L17:L21" si="10">IF(OR(RIGHT(A17)="C",A17="LN"),"Cavalry",IF(RIGHT(A17)="I","Infantry",A17))</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ref="M17:M21" si="11">IF(L17="Cavalry",G17*100,IF(L17="Infantry",G17*150,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="12:13">
-      <c r="L18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="12:13">
-      <c r="L19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="12:13">
-      <c r="L20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="12:13">
-      <c r="L21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="F33">
         <f>SUM(F2:F30)</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G33">
         <f>SUM(G2:G30)</f>
@@ -2493,7 +2440,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -2501,7 +2448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -2515,7 +2462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2476,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>8</v>
       </c>
@@ -2543,7 +2490,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
@@ -2564,22 +2511,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +2570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2655,7 +2602,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2687,7 +2634,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2666,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2751,7 +2698,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2783,7 +2730,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2760,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2844,7 +2791,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2875,7 +2822,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2906,7 +2853,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2937,7 +2884,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2968,7 +2915,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2999,7 +2946,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3016,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3033,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3050,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3067,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3083,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3099,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3114,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3130,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3146,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3162,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3178,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3195,7 +3142,7 @@
         <v>19050</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3206,7 +3153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -3220,7 +3167,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>8</v>
       </c>
@@ -3234,7 +3181,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>9</v>
       </c>
@@ -3248,7 +3195,7 @@
         <v>17550</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>8</v>
       </c>
@@ -3276,7 +3223,7 @@
         <v>19050</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>9</v>
       </c>
@@ -3284,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3292,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>6</v>
       </c>
@@ -3300,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -3308,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>5</v>
       </c>
@@ -3316,7 +3263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
@@ -3324,7 +3271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>7</v>
       </c>
@@ -3332,7 +3279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
@@ -3353,16 +3300,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3376,7 +3323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -3390,7 +3337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
